--- a/Raw_Data.xlsx
+++ b/Raw_Data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artthanan\Desktop\MUICT-ITCS498-AutomatedFoodName\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78DE989-6F00-4024-98C3-31422607BA7C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1339,29 +1348,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1369,7 +1385,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1379,70 +1395,366 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="57.43"/>
-    <col customWidth="1" min="2" max="2" width="26.14"/>
+    <col min="1" max="1" width="57.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1797,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1806,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1815,7 @@
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1824,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +1833,7 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1842,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1539,7 +1851,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1548,7 +1860,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1557,7 +1869,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +1878,7 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1575,7 +1887,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1584,7 +1896,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1905,7 @@
       </c>
       <c r="C15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1602,7 +1914,7 @@
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1611,7 +1923,7 @@
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1932,7 @@
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1629,7 +1941,7 @@
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1950,7 @@
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -1647,7 +1959,7 @@
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1656,7 +1968,7 @@
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -1665,7 +1977,7 @@
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +1986,7 @@
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -1683,7 +1995,7 @@
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +2004,7 @@
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -1701,7 +2013,7 @@
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +2022,7 @@
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
@@ -1719,7 +2031,7 @@
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -1728,7 +2040,7 @@
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1739,7 +2051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -1748,7 +2060,7 @@
       </c>
       <c r="C32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -1757,7 +2069,7 @@
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1766,7 +2078,7 @@
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -1775,1834 +2087,1834 @@
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>130</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>133</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>157</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" ht="196" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>163</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>164</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>170</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>195</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>212</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>215</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>219</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>220</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>266</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>274</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>275</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>276</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>278</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>281</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>282</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>283</v>
       </c>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>286</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>289</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>290</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>291</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>294</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>297</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>299</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>302</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>303</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>304</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>305</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>308</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>309</v>
       </c>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>322</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
         <v>324</v>
       </c>
@@ -3611,21 +3923,21 @@
       </c>
       <c r="C297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>326</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>328</v>
       </c>
@@ -3634,7 +3946,7 @@
       </c>
       <c r="C300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>329</v>
       </c>
@@ -3643,7 +3955,7 @@
       </c>
       <c r="C301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>331</v>
       </c>
@@ -3652,7 +3964,7 @@
       </c>
       <c r="C302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>333</v>
       </c>
@@ -3661,7 +3973,7 @@
       </c>
       <c r="C303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>334</v>
       </c>
@@ -3670,7 +3982,7 @@
       </c>
       <c r="C304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>335</v>
       </c>
@@ -3679,7 +3991,7 @@
       </c>
       <c r="C305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>336</v>
       </c>
@@ -3688,7 +4000,7 @@
       </c>
       <c r="C306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>337</v>
       </c>
@@ -3697,7 +4009,7 @@
       </c>
       <c r="C307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>339</v>
       </c>
@@ -3706,7 +4018,7 @@
       </c>
       <c r="C308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>340</v>
       </c>
@@ -3715,7 +4027,7 @@
       </c>
       <c r="C309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>341</v>
       </c>
@@ -3724,7 +4036,7 @@
       </c>
       <c r="C310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>342</v>
       </c>
@@ -3733,7 +4045,7 @@
       </c>
       <c r="C311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>344</v>
       </c>
@@ -3742,7 +4054,7 @@
       </c>
       <c r="C312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
         <v>346</v>
       </c>
@@ -3751,7 +4063,7 @@
       </c>
       <c r="C313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>348</v>
       </c>
@@ -3760,7 +4072,7 @@
       </c>
       <c r="C314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>349</v>
       </c>
@@ -3769,7 +4081,7 @@
       </c>
       <c r="C315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>351</v>
       </c>
@@ -3778,7 +4090,7 @@
       </c>
       <c r="C316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>352</v>
       </c>
@@ -3787,7 +4099,7 @@
       </c>
       <c r="C317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>354</v>
       </c>
@@ -3796,7 +4108,7 @@
       </c>
       <c r="C318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>355</v>
       </c>
@@ -3805,7 +4117,7 @@
       </c>
       <c r="C319" s="7"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>356</v>
       </c>
@@ -3814,7 +4126,7 @@
       </c>
       <c r="C320" s="7"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
         <v>357</v>
       </c>
@@ -3823,7 +4135,7 @@
       </c>
       <c r="C321" s="7"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>358</v>
       </c>
@@ -3832,7 +4144,7 @@
       </c>
       <c r="C322" s="7"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>359</v>
       </c>
@@ -3841,7 +4153,7 @@
       </c>
       <c r="C323" s="7"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
         <v>361</v>
       </c>
@@ -3850,7 +4162,7 @@
       </c>
       <c r="C324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>363</v>
       </c>
@@ -3859,7 +4171,7 @@
       </c>
       <c r="C325" s="7"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>365</v>
       </c>
@@ -3868,7 +4180,7 @@
       </c>
       <c r="C326" s="7"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
         <v>366</v>
       </c>
@@ -3877,7 +4189,7 @@
       </c>
       <c r="C327" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
         <v>367</v>
       </c>
@@ -3886,7 +4198,7 @@
       </c>
       <c r="C328" s="7"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>369</v>
       </c>
@@ -3895,7 +4207,7 @@
       </c>
       <c r="C329" s="7"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>370</v>
       </c>
@@ -3904,7 +4216,7 @@
       </c>
       <c r="C330" s="7"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>372</v>
       </c>
@@ -3913,7 +4225,7 @@
       </c>
       <c r="C331" s="7"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>374</v>
       </c>
@@ -3922,7 +4234,7 @@
       </c>
       <c r="C332" s="7"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>375</v>
       </c>
@@ -3931,7 +4243,7 @@
       </c>
       <c r="C333" s="7"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>376</v>
       </c>
@@ -3940,7 +4252,7 @@
       </c>
       <c r="C334" s="7"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>377</v>
       </c>
@@ -3949,7 +4261,7 @@
       </c>
       <c r="C335" s="7"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>379</v>
       </c>
@@ -3958,7 +4270,7 @@
       </c>
       <c r="C336" s="7"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>380</v>
       </c>
@@ -3967,7 +4279,7 @@
       </c>
       <c r="C337" s="7"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>381</v>
       </c>
@@ -3976,7 +4288,7 @@
       </c>
       <c r="C338" s="7"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>383</v>
       </c>
@@ -3985,7 +4297,7 @@
       </c>
       <c r="C339" s="7"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>384</v>
       </c>
@@ -3994,7 +4306,7 @@
       </c>
       <c r="C340" s="7"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>385</v>
       </c>
@@ -4003,7 +4315,7 @@
       </c>
       <c r="C341" s="7"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>387</v>
       </c>
@@ -4012,7 +4324,7 @@
       </c>
       <c r="C342" s="7"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>388</v>
       </c>
@@ -4021,7 +4333,7 @@
       </c>
       <c r="C343" s="7"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
         <v>389</v>
       </c>
@@ -4030,7 +4342,7 @@
       </c>
       <c r="C344" s="7"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
         <v>391</v>
       </c>
@@ -4039,7 +4351,7 @@
       </c>
       <c r="C345" s="7"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>392</v>
       </c>
@@ -4048,7 +4360,7 @@
       </c>
       <c r="C346" s="7"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
         <v>394</v>
       </c>
@@ -4057,7 +4369,7 @@
       </c>
       <c r="C347" s="7"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
         <v>395</v>
       </c>
@@ -4066,7 +4378,7 @@
       </c>
       <c r="C348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>397</v>
       </c>
@@ -4075,7 +4387,7 @@
       </c>
       <c r="C349" s="7"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
         <v>398</v>
       </c>
@@ -4084,7 +4396,7 @@
       </c>
       <c r="C350" s="7"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>400</v>
       </c>
@@ -4093,7 +4405,7 @@
       </c>
       <c r="C351" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>402</v>
       </c>
@@ -4102,7 +4414,7 @@
       </c>
       <c r="C352" s="7"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
         <v>404</v>
       </c>
@@ -4111,7 +4423,7 @@
       </c>
       <c r="C353" s="7"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>406</v>
       </c>
@@ -4120,7 +4432,7 @@
       </c>
       <c r="C354" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>408</v>
       </c>
@@ -4129,7 +4441,7 @@
       </c>
       <c r="C355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>410</v>
       </c>
@@ -4138,7 +4450,7 @@
       </c>
       <c r="C356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
         <v>412</v>
       </c>
@@ -4147,7 +4459,7 @@
       </c>
       <c r="C357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
         <v>414</v>
       </c>
@@ -4156,7 +4468,7 @@
       </c>
       <c r="C358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
         <v>415</v>
       </c>
@@ -4165,7 +4477,7 @@
       </c>
       <c r="C359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
         <v>417</v>
       </c>
@@ -4174,7 +4486,7 @@
       </c>
       <c r="C360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
         <v>419</v>
       </c>
@@ -4183,7 +4495,7 @@
       </c>
       <c r="C361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
         <v>421</v>
       </c>
@@ -4192,7 +4504,7 @@
       </c>
       <c r="C362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>423</v>
       </c>
@@ -4201,7 +4513,7 @@
       </c>
       <c r="C363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>425</v>
       </c>
@@ -4210,7 +4522,7 @@
       </c>
       <c r="C364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>427</v>
       </c>
@@ -4219,7 +4531,7 @@
       </c>
       <c r="C365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>429</v>
       </c>
@@ -4228,7 +4540,7 @@
       </c>
       <c r="C366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>430</v>
       </c>
@@ -4237,7 +4549,7 @@
       </c>
       <c r="C367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>431</v>
       </c>
@@ -4246,7 +4558,7 @@
       </c>
       <c r="C368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>433</v>
       </c>
@@ -4255,7 +4567,7 @@
       </c>
       <c r="C369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
         <v>434</v>
       </c>
@@ -4264,7 +4576,7 @@
       </c>
       <c r="C370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>436</v>
       </c>
@@ -4273,7 +4585,7 @@
       </c>
       <c r="C371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>438</v>
       </c>
@@ -4282,7 +4594,7 @@
       </c>
       <c r="C372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>440</v>
       </c>
@@ -4291,1891 +4603,10 @@
       </c>
       <c r="C373" s="7"/>
     </row>
-    <row r="374">
-      <c r="A374" s="11"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="11"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="11"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="11"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="11"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="11"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="11"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="11"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="11"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="11"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="11"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="11"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="11"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="11"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="11"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="11"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="11"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="11"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="11"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="11"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="11"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="11"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="11"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="11"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="11"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="11"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="11"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="11"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="11"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="11"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="11"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="11"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="11"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="11"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="11"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="11"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="11"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="11"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="11"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="11"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="11"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="11"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="11"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="11"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="11"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="11"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="11"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="11"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="11"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="11"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="11"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="11"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="11"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="11"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="11"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="11"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="11"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="11"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="11"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="11"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="11"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="11"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="11"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="11"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="11"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="11"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="11"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="11"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="11"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="11"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="11"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="11"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="11"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="11"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="11"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="11"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="11"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="11"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="11"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="11"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="11"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="11"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="11"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="11"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="11"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="11"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="11"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="11"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="11"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="11"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="11"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="11"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="11"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="11"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="11"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="11"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="11"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="11"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="11"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="11"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="11"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="11"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="11"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="11"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="11"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="11"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="11"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="11"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="11"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="11"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="11"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="11"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="11"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="11"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="11"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="11"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="11"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="11"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="11"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="11"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="11"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="11"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="11"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="11"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="11"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="11"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="11"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="11"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="11"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="11"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="11"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="11"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="11"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="11"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="11"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="11"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="11"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="11"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="11"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="11"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="11"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="11"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="11"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="11"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="11"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="11"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="11"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="11"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="11"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="11"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="11"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="11"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="11"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="11"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="11"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="11"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="11"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="11"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="11"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="11"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="11"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="11"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="11"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="11"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="11"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="11"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="11"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="11"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="11"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="11"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="11"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="11"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="11"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="11"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="11"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="11"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="11"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="11"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="11"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="11"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="11"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="11"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="11"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="11"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="11"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="11"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="11"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="11"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="11"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="11"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="11"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="11"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="11"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="11"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="11"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="11"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="11"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="11"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="11"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="11"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="11"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="11"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="11"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="11"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="11"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="11"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="11"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="11"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="11"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="11"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="11"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="11"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="11"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="11"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="11"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="11"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="11"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="11"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="11"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="11"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="11"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="11"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="11"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="11"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="11"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="11"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="11"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="11"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="11"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="11"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="11"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="11"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="11"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="11"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="11"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="11"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="11"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="11"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="11"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="11"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="11"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="11"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="11"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="11"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="11"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="11"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="11"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="11"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="11"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="11"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="11"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="11"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="11"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="11"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="11"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="11"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="11"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="11"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="11"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="11"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="11"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="11"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="11"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="11"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="11"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="11"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="11"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="11"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="11"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="11"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="11"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="11"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="11"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="11"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="11"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="11"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="11"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="11"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="11"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="11"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="11"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="11"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="11"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="11"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="11"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="11"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="11"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="11"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="11"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="11"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="11"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="11"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="11"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="11"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="11"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="11"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="11"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="11"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="11"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="11"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="11"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="11"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="11"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="11"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="11"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="11"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="11"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="11"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="11"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="11"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="11"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="11"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="11"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="11"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="11"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="11"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="11"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="11"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="11"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="11"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="11"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="11"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="11"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="11"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="11"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="11"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="11"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="11"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="11"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="11"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="11"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="11"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="11"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="11"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="11"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="11"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="11"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="11"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="11"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="11"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="11"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="11"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="11"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="11"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="11"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="11"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="11"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="11"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="11"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="11"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="11"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="11"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="11"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="11"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="11"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="11"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="11"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="11"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="11"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="11"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="11"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="11"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="11"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="11"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="11"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="11"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="11"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="11"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="11"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="11"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="11"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="11"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="11"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="11"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="11"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="11"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="11"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="11"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="11"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="11"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="11"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="11"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="11"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="11"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="11"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="11"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="11"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="11"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="11"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="11"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="11"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="11"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="11"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="11"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="11"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="11"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="11"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="11"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="11"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="11"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="11"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="11"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="11"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="11"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="11"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="11"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="11"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="11"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="11"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="11"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="11"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="11"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="11"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="11"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="11"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="11"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="11"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="11"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="11"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="11"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="11"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="11"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="11"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="11"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="11"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="11"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="11"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="11"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="11"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="11"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="11"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="11"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="11"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="11"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="11"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="11"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="11"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="11"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="11"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="11"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="11"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="11"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="11"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="11"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="11"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="11"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="11"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="11"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="11"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="11"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="11"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="11"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="11"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="11"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="11"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="11"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="11"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="11"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="11"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="11"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="11"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="11"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="11"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="11"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="11"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="11"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="11"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="11"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="11"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="11"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="11"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="11"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="11"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="11"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="11"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="11"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="11"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="11"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="11"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="11"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="11"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="11"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="11"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="11"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="11"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="11"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="11"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="11"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="11"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="11"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="11"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="11"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="11"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="11"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="11"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="11"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="11"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="11"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="11"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="11"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="11"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="11"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="11"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="11"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="11"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="11"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="11"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="11"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="11"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="11"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="11"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="11"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="11"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="11"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="11"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="11"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="11"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="11"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="11"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="11"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="11"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="11"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="11"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="11"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="11"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="11"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="11"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="11"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="11"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="11"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="11"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="11"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="11"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="11"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="11"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="11"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="11"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="11"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="11"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="11"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="11"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="11"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="11"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="11"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="11"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="11"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="11"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="11"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="11"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="11"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="11"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="11"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="11"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="11"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="11"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="11"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="11"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="11"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="11"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="11"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="11"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="11"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="11"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="11"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="11"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="11"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="11"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="11"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="11"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="11"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="11"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="11"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="11"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="11"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="11"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="11"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="11"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="11"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="11"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="11"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="11"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="11"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="11"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="11"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="11"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="11"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="11"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="11"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="11"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="11"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="11"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="11"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="11"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="11"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="11"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="11"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="11"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="11"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="11"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="11"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="11"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="11"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="11"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="11"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="11"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="11"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="11"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="11"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="11"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="11"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="11"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="11"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="11"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="11"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="11"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="11"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="11"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="11"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="11"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="11"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="11"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="11"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="11"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="11"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="11"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="11"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="11"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>